--- a/events2.xlsx
+++ b/events2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saiem 70\Desktop\Summer 2021 projects\DIFA\R_codes\hello_world\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thema\git\difa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A24F14-B0C7-466F-BFCB-30214B9C35DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAB3042-C17F-46BB-932F-2D395ACC3A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,24 +108,9 @@
     <t>5:00PM</t>
   </si>
   <si>
-    <t>[Lauren Chenarides](https://wpcarey.asu.edu/people/profile/3153292), [Drew Hanks](https://ehe.osu.edu/human-sciences/directory?id=hanks.46)</t>
-  </si>
-  <si>
-    <t>[Amelia Finaret](https://sites.allegheny.edu/globalhealth/faculty/amelia-finaret/)</t>
-  </si>
-  <si>
-    <t>[Lauren Chenarides](https://wpcarey.asu.edu/people/profile/3153292)</t>
-  </si>
-  <si>
-    <t>[Drew Hanks](https://ehe.osu.edu/human-sciences/directory?id=hanks.46)</t>
-  </si>
-  <si>
     <t>[Wen You](https://med.virginia.edu/phs/2019/08/01/you-wen/), [Bruce Weinberg](https://economics.osu.edu/people/weinberg.27), [Mark Prell](https://www.ers.usda.gov/authors/ers-staff-directory/mark-prell/)</t>
   </si>
   <si>
-    <t>[George Davis](https://aaec.vt.edu/people/faculty/davis-george.html), [Joe Cummins](https://www.josephrcummins.com/)</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -145,6 +130,21 @@
   </si>
   <si>
     <t>Closing from the FAMPS and FSN Chairs</t>
+  </si>
+  <si>
+    <t>[Lauren Chenarides](https://dataifa.github.io/difa-project/Leadership_team.html), [Drew Hanks](https://dataifa.github.io/difa-project/Leadership_team.html)</t>
+  </si>
+  <si>
+    <t>[George Davis](https://dataifa.github.io/difa-project/Leadership_team.html), [Joe Cummins](https://www.josephrcummins.com/)</t>
+  </si>
+  <si>
+    <t>[Drew Hanks](https://dataifa.github.io/difa-project/Leadership_team.html)</t>
+  </si>
+  <si>
+    <t>[Lauren Chenarides](https://dataifa.github.io/difa-project/Leadership_team.html)</t>
+  </si>
+  <si>
+    <t>[Amelia Finaret](https://dataifa.github.io/difa-project/Leadership_team.html)</t>
   </si>
 </sst>
 </file>
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -516,10 +516,10 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -536,10 +536,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -559,7 +559,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -596,10 +596,10 @@
         <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -636,10 +636,10 @@
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -656,10 +656,10 @@
         <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/events2.xlsx
+++ b/events2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thema\git\difa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAB3042-C17F-46BB-932F-2D395ACC3A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CCE1FE-333E-4537-926A-BE95FFF89BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,7 +144,7 @@
     <t>[Lauren Chenarides](https://dataifa.github.io/difa-project/Leadership_team.html)</t>
   </si>
   <si>
-    <t>[Amelia Finaret](https://dataifa.github.io/difa-project/Leadership_team.html)</t>
+    <t>[Amelia Finaret](https://dataifa.github.io/difa-project/amelia_finaret.html)</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/events2.xlsx
+++ b/events2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thema\git\difa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CCE1FE-333E-4537-926A-BE95FFF89BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7F5AF1-C144-4990-9AAE-CFE99AE0756F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,19 +132,19 @@
     <t>Closing from the FAMPS and FSN Chairs</t>
   </si>
   <si>
-    <t>[Lauren Chenarides](https://dataifa.github.io/difa-project/Leadership_team.html), [Drew Hanks](https://dataifa.github.io/difa-project/Leadership_team.html)</t>
-  </si>
-  <si>
-    <t>[George Davis](https://dataifa.github.io/difa-project/Leadership_team.html), [Joe Cummins](https://www.josephrcummins.com/)</t>
-  </si>
-  <si>
-    <t>[Drew Hanks](https://dataifa.github.io/difa-project/Leadership_team.html)</t>
-  </si>
-  <si>
-    <t>[Lauren Chenarides](https://dataifa.github.io/difa-project/Leadership_team.html)</t>
-  </si>
-  <si>
     <t>[Amelia Finaret](https://dataifa.github.io/difa-project/amelia_finaret.html)</t>
+  </si>
+  <si>
+    <t>[Lauren Chenarides](https://dataifa.github.io/difa-project/lauren_chenarides.html), [Drew Hanks](https://dataifa.github.io/difa-project/drew_hanks.html)</t>
+  </si>
+  <si>
+    <t>[George Davis](https://dataifa.github.io/difa-project/george_davis.html), [Joe Cummins](https://www.josephrcummins.com/)</t>
+  </si>
+  <si>
+    <t>[Drew Hanks](https://dataifa.github.io/difa-project/drew_hanks.html)</t>
+  </si>
+  <si>
+    <t>[Lauren Chenarides](https://dataifa.github.io/difa-project/lauren_chenarides.html)</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +519,7 @@
         <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -559,7 +559,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -599,7 +599,7 @@
         <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -619,7 +619,7 @@
         <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -639,7 +639,7 @@
         <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -659,7 +659,7 @@
         <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/events2.xlsx
+++ b/events2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thema\git\difa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7F5AF1-C144-4990-9AAE-CFE99AE0756F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245AE9C1-E887-4229-94CA-50E394E687ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -469,7 +469,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/events2.xlsx
+++ b/events2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thema\git\difa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245AE9C1-E887-4229-94CA-50E394E687ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E1C02B-DDE3-4CE7-91D1-BAE4C81D6FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33240" yWindow="2025" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -469,7 +469,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/events2.xlsx
+++ b/events2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thema\git\difa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E1C02B-DDE3-4CE7-91D1-BAE4C81D6FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38D65B7-55E0-4E44-B75C-021DE02C0F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33240" yWindow="2025" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4635" yWindow="2655" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,9 +108,6 @@
     <t>5:00PM</t>
   </si>
   <si>
-    <t>[Wen You](https://med.virginia.edu/phs/2019/08/01/you-wen/), [Bruce Weinberg](https://economics.osu.edu/people/weinberg.27), [Mark Prell](https://www.ers.usda.gov/authors/ers-staff-directory/mark-prell/)</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>[Lauren Chenarides](https://dataifa.github.io/difa-project/lauren_chenarides.html)</t>
+  </si>
+  <si>
+    <t>[Wen You](https://med.virginia.edu/phs/2019/08/01/you-wen/), [Nichole Szembrot](https://sites.google.com/site/nicholeszembrot/), [Mark Prell](https://www.ers.usda.gov/authors/ers-staff-directory/mark-prell/), [Bruce Weinberg](https://economics.osu.edu/people/weinberg.27)</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -516,10 +516,10 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -536,10 +536,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -559,7 +559,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -596,10 +596,10 @@
         <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -636,10 +636,10 @@
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -656,10 +656,10 @@
         <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/events2.xlsx
+++ b/events2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thema\git\difa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38D65B7-55E0-4E44-B75C-021DE02C0F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD559AC-A3AF-47EC-8537-CFDB5F45973A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="2655" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15240" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>Start Time</t>
   </si>
@@ -135,26 +135,37 @@
     <t>[Lauren Chenarides](https://dataifa.github.io/difa-project/lauren_chenarides.html), [Drew Hanks](https://dataifa.github.io/difa-project/drew_hanks.html)</t>
   </si>
   <si>
-    <t>[George Davis](https://dataifa.github.io/difa-project/george_davis.html), [Joe Cummins](https://www.josephrcummins.com/)</t>
-  </si>
-  <si>
     <t>[Drew Hanks](https://dataifa.github.io/difa-project/drew_hanks.html)</t>
   </si>
   <si>
     <t>[Lauren Chenarides](https://dataifa.github.io/difa-project/lauren_chenarides.html)</t>
   </si>
   <si>
-    <t>[Wen You](https://med.virginia.edu/phs/2019/08/01/you-wen/), [Nichole Szembrot](https://sites.google.com/site/nicholeszembrot/), [Mark Prell](https://www.ers.usda.gov/authors/ers-staff-directory/mark-prell/), [Bruce Weinberg](https://economics.osu.edu/people/weinberg.27)</t>
+    <t>https://dataifa.github.io/difa-project/comingsoon.html</t>
+  </si>
+  <si>
+    <t>[Wen You](https://dataifa.github.io/difa-project/comingsoon.html), [Nichole Szembrot](https://dataifa.github.io/difa-project/comingsoon.html), [Mark Prell]https://dataifa.github.io/difa-project/comingsoon.html), [Bruce Weinberg](https://dataifa.github.io/difa-project/comingsoon.html)</t>
+  </si>
+  <si>
+    <t>[George Davis](https://dataifa.github.io/difa-project/george_davis.html), [Joe Cummins](https://dataifa.github.io/difa-project/comingsoon.html)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -177,17 +188,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -466,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +573,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -599,7 +613,7 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -619,7 +633,7 @@
         <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -662,7 +676,15 @@
         <v>35</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D13" r:id="rId1" xr:uid="{69E48953-1A94-476F-A09B-117BDC467516}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/events2.xlsx
+++ b/events2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thema\git\difa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD559AC-A3AF-47EC-8537-CFDB5F45973A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C895BC8F-0D6C-4DB8-9EED-0B96285A376E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15240" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Start Time</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>[Lauren Chenarides](https://dataifa.github.io/difa-project/lauren_chenarides.html)</t>
-  </si>
-  <si>
-    <t>https://dataifa.github.io/difa-project/comingsoon.html</t>
   </si>
   <si>
     <t>[Wen You](https://dataifa.github.io/difa-project/comingsoon.html), [Nichole Szembrot](https://dataifa.github.io/difa-project/comingsoon.html), [Mark Prell]https://dataifa.github.io/difa-project/comingsoon.html), [Bruce Weinberg](https://dataifa.github.io/difa-project/comingsoon.html)</t>
@@ -482,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +550,7 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -573,7 +570,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -677,14 +674,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="D13" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D13" r:id="rId1" xr:uid="{69E48953-1A94-476F-A09B-117BDC467516}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/events2.xlsx
+++ b/events2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thema\git\difa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C895BC8F-0D6C-4DB8-9EED-0B96285A376E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F855AB52-6D13-411A-A944-90E4C853EBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,10 +141,10 @@
     <t>[Lauren Chenarides](https://dataifa.github.io/difa-project/lauren_chenarides.html)</t>
   </si>
   <si>
-    <t>[Wen You](https://dataifa.github.io/difa-project/comingsoon.html), [Nichole Szembrot](https://dataifa.github.io/difa-project/comingsoon.html), [Mark Prell]https://dataifa.github.io/difa-project/comingsoon.html), [Bruce Weinberg](https://dataifa.github.io/difa-project/comingsoon.html)</t>
-  </si>
-  <si>
     <t>[George Davis](https://dataifa.github.io/difa-project/george_davis.html), [Joe Cummins](https://dataifa.github.io/difa-project/comingsoon.html)</t>
+  </si>
+  <si>
+    <t>[Wen You](https://dataifa.github.io/difa-project/comingsoon.html), [Nichole Szembrot](https://dataifa.github.io/difa-project/comingsoon.html), [Mark Prell](https://dataifa.github.io/difa-project/comingsoon.html), [Bruce Weinberg](https://dataifa.github.io/difa-project/comingsoon.html)</t>
   </si>
 </sst>
 </file>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,7 +550,7 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -570,7 +570,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">

--- a/events2.xlsx
+++ b/events2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thema\git\difa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F855AB52-6D13-411A-A944-90E4C853EBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EB9F8F-D7CE-4AFF-B63B-9089B417D73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
     <t>[George Davis](https://dataifa.github.io/difa-project/george_davis.html), [Joe Cummins](https://dataifa.github.io/difa-project/comingsoon.html)</t>
   </si>
   <si>
-    <t>[Wen You](https://dataifa.github.io/difa-project/comingsoon.html), [Nichole Szembrot](https://dataifa.github.io/difa-project/comingsoon.html), [Mark Prell](https://dataifa.github.io/difa-project/comingsoon.html), [Bruce Weinberg](https://dataifa.github.io/difa-project/comingsoon.html)</t>
+    <t>[Wen You](https://dataifa.github.io/difa-project/wen_you.html), [Nichole Szembrot](https://dataifa.github.io/difa-project/comingsoon.html), [Mark Prell](https://dataifa.github.io/difa-project/bruce_weinberg.html), [Bruce Weinberg](https://dataifa.github.io/difa-project/comingsoon.html)</t>
   </si>
 </sst>
 </file>

--- a/events2.xlsx
+++ b/events2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thema\git\difa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EB9F8F-D7CE-4AFF-B63B-9089B417D73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C60B907-9CA0-4A44-B93F-FD9E619793E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,7 +144,7 @@
     <t>[George Davis](https://dataifa.github.io/difa-project/george_davis.html), [Joe Cummins](https://dataifa.github.io/difa-project/comingsoon.html)</t>
   </si>
   <si>
-    <t>[Wen You](https://dataifa.github.io/difa-project/wen_you.html), [Nichole Szembrot](https://dataifa.github.io/difa-project/comingsoon.html), [Mark Prell](https://dataifa.github.io/difa-project/bruce_weinberg.html), [Bruce Weinberg](https://dataifa.github.io/difa-project/comingsoon.html)</t>
+    <t>[Wen You](https://dataifa.github.io/difa-project/wen_you.html), [Nichole Szembrot](https://dataifa.github.io/difa-project/comingsoon.html), [Mark Prell](https://dataifa.github.io/difa-project/comingsoon.html), [Bruce Weinberg](https://dataifa.github.io/difa-project/bruce_weinberg.html)</t>
   </si>
 </sst>
 </file>
@@ -480,7 +480,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/events2.xlsx
+++ b/events2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thema\git\difa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C60B907-9CA0-4A44-B93F-FD9E619793E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAED687B-3D87-4602-9689-EB383EFFD108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -480,7 +480,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/events2.xlsx
+++ b/events2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thema\git\difa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAED687B-3D87-4602-9689-EB383EFFD108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A07B38-0796-4197-AFC3-1521B2A9F013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4410" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>Start Time</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Session 5</t>
   </si>
   <si>
-    <t>Session 6 (Research Presentations)</t>
-  </si>
-  <si>
     <t>Frontiers in evidence-based policymaking</t>
   </si>
   <si>
@@ -84,27 +81,12 @@
     <t>Duration</t>
   </si>
   <si>
-    <t>2:15PM</t>
-  </si>
-  <si>
     <t>60 Minutes</t>
   </si>
   <si>
-    <t>2:30PM</t>
-  </si>
-  <si>
-    <t>3:15PM</t>
-  </si>
-  <si>
     <t>45 minutes</t>
   </si>
   <si>
-    <t>4:00PM</t>
-  </si>
-  <si>
-    <t>4:45PM</t>
-  </si>
-  <si>
     <t>5:00PM</t>
   </si>
   <si>
@@ -145,6 +127,39 @@
   </si>
   <si>
     <t>[Wen You](https://dataifa.github.io/difa-project/wen_you.html), [Nichole Szembrot](https://dataifa.github.io/difa-project/comingsoon.html), [Mark Prell](https://dataifa.github.io/difa-project/comingsoon.html), [Bruce Weinberg](https://dataifa.github.io/difa-project/bruce_weinberg.html)</t>
+  </si>
+  <si>
+    <t>1:35PM</t>
+  </si>
+  <si>
+    <t>20 minutes</t>
+  </si>
+  <si>
+    <t>Session 6</t>
+  </si>
+  <si>
+    <t>Linking Administrative Data: The IPUMS Experience</t>
+  </si>
+  <si>
+    <t>[Matt Bombyk](https://dataifa.github.io/difa-project/comingsoon.html)</t>
+  </si>
+  <si>
+    <t>2:35PM</t>
+  </si>
+  <si>
+    <t>Session 7 (Research Presentations)</t>
+  </si>
+  <si>
+    <t>2:50PM</t>
+  </si>
+  <si>
+    <t>3:30PM</t>
+  </si>
+  <si>
+    <t>4:10PM</t>
+  </si>
+  <si>
+    <t>4:50PM</t>
   </si>
 </sst>
 </file>
@@ -477,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,13 +516,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -515,166 +530,186 @@
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>30</v>
+      <c r="E6" t="s">
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="3"/>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/events2.xlsx
+++ b/events2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thema\git\difa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A07B38-0796-4197-AFC3-1521B2A9F013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32C9A45-E763-45B0-BA68-5506D1DAC48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30870" yWindow="2280" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,12 +123,6 @@
     <t>[Lauren Chenarides](https://dataifa.github.io/difa-project/lauren_chenarides.html)</t>
   </si>
   <si>
-    <t>[George Davis](https://dataifa.github.io/difa-project/george_davis.html), [Joe Cummins](https://dataifa.github.io/difa-project/comingsoon.html)</t>
-  </si>
-  <si>
-    <t>[Wen You](https://dataifa.github.io/difa-project/wen_you.html), [Nichole Szembrot](https://dataifa.github.io/difa-project/comingsoon.html), [Mark Prell](https://dataifa.github.io/difa-project/comingsoon.html), [Bruce Weinberg](https://dataifa.github.io/difa-project/bruce_weinberg.html)</t>
-  </si>
-  <si>
     <t>1:35PM</t>
   </si>
   <si>
@@ -160,6 +154,12 @@
   </si>
   <si>
     <t>4:50PM</t>
+  </si>
+  <si>
+    <t>[Wen You](https://dataifa.github.io/difa-project/wen_you.html), [Nichole Szembrot](https://dataifa.github.io/difa-project/nichole_szembrot.html), [Mark Prell](https://dataifa.github.io/difa-project/mark_prell.html), [Bruce Weinberg](https://dataifa.github.io/difa-project/bruce_weinberg.html)</t>
+  </si>
+  <si>
+    <t>[George Davis](https://dataifa.github.io/difa-project/george_davis.html), [Joe Cummins](https://dataifa.github.io/difa-project/joe_cummins.html)</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +565,7 @@
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -573,47 +573,47 @@
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -630,10 +630,10 @@
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>19</v>
@@ -650,10 +650,10 @@
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>19</v>
@@ -670,10 +670,10 @@
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>19</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>20</v>

--- a/events2.xlsx
+++ b/events2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thema\git\difa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32C9A45-E763-45B0-BA68-5506D1DAC48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AD34D4-8C7A-4328-BBE7-73B047313639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30870" yWindow="2280" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="2625" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,9 +135,6 @@
     <t>Linking Administrative Data: The IPUMS Experience</t>
   </si>
   <si>
-    <t>[Matt Bombyk](https://dataifa.github.io/difa-project/comingsoon.html)</t>
-  </si>
-  <si>
     <t>2:35PM</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>[George Davis](https://dataifa.github.io/difa-project/george_davis.html), [Joe Cummins](https://dataifa.github.io/difa-project/joe_cummins.html)</t>
+  </si>
+  <si>
+    <t>[Matt Bombyk](https://dataifa.github.io/difa-project/matt_bombyk.html)</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +565,7 @@
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -585,7 +585,7 @@
         <v>35</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -593,27 +593,27 @@
         <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -630,10 +630,10 @@
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>19</v>
@@ -650,10 +650,10 @@
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>19</v>
@@ -670,10 +670,10 @@
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>19</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>20</v>

--- a/events2.xlsx
+++ b/events2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thema\git\difa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AD34D4-8C7A-4328-BBE7-73B047313639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3339C7AB-8D89-44B0-8EA7-8C009C3CED7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="2625" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31170" yWindow="1665" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>Start Time</t>
   </si>
@@ -84,9 +84,6 @@
     <t>60 Minutes</t>
   </si>
   <si>
-    <t>45 minutes</t>
-  </si>
-  <si>
     <t>5:00PM</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>Deterministic Data Linkages: Matching and Fuzzy Matching</t>
   </si>
   <si>
-    <t>Econometric and Statistical Considerations When Using Linked Data</t>
-  </si>
-  <si>
     <t>Closing from the FAMPS and FSN Chairs</t>
   </si>
   <si>
@@ -160,6 +154,15 @@
   </si>
   <si>
     <t>[Matt Bombyk](https://dataifa.github.io/difa-project/matt_bombyk.html)</t>
+  </si>
+  <si>
+    <t>Data quality: Considerations when using linked data</t>
+  </si>
+  <si>
+    <t>40 minutes</t>
+  </si>
+  <si>
+    <t>10 minutes</t>
   </si>
 </sst>
 </file>
@@ -494,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -542,10 +545,10 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -562,10 +565,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -573,47 +576,47 @@
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -630,82 +633,82 @@
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
         <v>27</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">

--- a/events2.xlsx
+++ b/events2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thema\git\difa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3339C7AB-8D89-44B0-8EA7-8C009C3CED7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A09846-515A-4361-A4DB-6FC7C377D9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31170" yWindow="1665" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t>Challenges and bottlenecks of working with administrative data</t>
   </si>
   <si>
-    <t>Navigating Licenses Building a Research Plan to Access RDC Data</t>
-  </si>
-  <si>
     <t>Deterministic Data Linkages: Matching and Fuzzy Matching</t>
   </si>
   <si>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>10 minutes</t>
+  </si>
+  <si>
+    <t>Navigating Licenses and Building a Research Plan to Access RDC Data</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,7 +548,7 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -568,7 +568,7 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -576,47 +576,47 @@
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -633,82 +633,82 @@
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">

--- a/events2.xlsx
+++ b/events2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thema\git\difa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A09846-515A-4361-A4DB-6FC7C377D9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF927A15-C6BF-4F26-992C-A68D6CC4DFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31170" yWindow="1665" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -498,7 +498,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,13 +642,13 @@
         <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -682,13 +682,13 @@
         <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">

--- a/events2.xlsx
+++ b/events2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thema\git\difa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF927A15-C6BF-4F26-992C-A68D6CC4DFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4FF56C-2857-4E85-A6AF-1464F21059D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31170" yWindow="1665" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="135" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>Start Time</t>
   </si>
@@ -102,18 +102,6 @@
     <t>Closing from the FAMPS and FSN Chairs</t>
   </si>
   <si>
-    <t>[Amelia Finaret](https://dataifa.github.io/difa-project/amelia_finaret.html)</t>
-  </si>
-  <si>
-    <t>[Lauren Chenarides](https://dataifa.github.io/difa-project/lauren_chenarides.html), [Drew Hanks](https://dataifa.github.io/difa-project/drew_hanks.html)</t>
-  </si>
-  <si>
-    <t>[Drew Hanks](https://dataifa.github.io/difa-project/drew_hanks.html)</t>
-  </si>
-  <si>
-    <t>[Lauren Chenarides](https://dataifa.github.io/difa-project/lauren_chenarides.html)</t>
-  </si>
-  <si>
     <t>1:35PM</t>
   </si>
   <si>
@@ -144,15 +132,6 @@
     <t>4:50PM</t>
   </si>
   <si>
-    <t>[Wen You](https://dataifa.github.io/difa-project/wen_you.html), [Nichole Szembrot](https://dataifa.github.io/difa-project/nichole_szembrot.html), [Mark Prell](https://dataifa.github.io/difa-project/mark_prell.html), [Bruce Weinberg](https://dataifa.github.io/difa-project/bruce_weinberg.html)</t>
-  </si>
-  <si>
-    <t>[George Davis](https://dataifa.github.io/difa-project/george_davis.html), [Joe Cummins](https://dataifa.github.io/difa-project/joe_cummins.html)</t>
-  </si>
-  <si>
-    <t>[Matt Bombyk](https://dataifa.github.io/difa-project/matt_bombyk.html)</t>
-  </si>
-  <si>
     <t>Data quality: Considerations when using linked data</t>
   </si>
   <si>
@@ -163,6 +142,30 @@
   </si>
   <si>
     <t>Navigating Licenses and Building a Research Plan to Access RDC Data</t>
+  </si>
+  <si>
+    <t>[Lauren Chenarides](https://www.youtube.com/watch?v=ndiQmUUxi9k), [Drew Hanks](https://www.youtube.com/watch?v=ndiQmUUxi9k)</t>
+  </si>
+  <si>
+    <t>[Wen You](https://www.youtube.com/watch?v=XWrJ4ewASqE), [Nichole Szembrot](https://www.youtube.com/watch?v=XWrJ4ewASqE), [Mark Prell](https://www.youtube.com/watch?v=XWrJ4ewASqE), [Bruce Weinberg](https://www.youtube.com/watch?v=XWrJ4ewASqE)</t>
+  </si>
+  <si>
+    <t>[Matt Bombyk](https://www.youtube.com/watch?v=GRfKbc8fs40)</t>
+  </si>
+  <si>
+    <t>[George Davis](https://www.youtube.com/watch?v=Vc4q-rcEOS4), [Joe Cummins](https://www.youtube.com/watch?v=Gh2Gv24yp44)</t>
+  </si>
+  <si>
+    <t>[Lauren Chenarides](https://www.youtube.com/watch?v=_yIWVTy-72k)</t>
+  </si>
+  <si>
+    <t>[Amelia Finaret](https://www.youtube.com/watch?v=poUAfpXeefA)</t>
+  </si>
+  <si>
+    <t>[Drew Hanks](https://www.youtube.com/watch?v=kN0pyEv3t3E)</t>
+  </si>
+  <si>
+    <t>[Lauren Chenarides](https://www.youtube.com/watch?v=0zEtZ6092IQ), [Drew Hanks](https://www.youtube.com/watch?v=0zEtZ6092IQ)</t>
   </si>
 </sst>
 </file>
@@ -497,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,7 +551,7 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -568,7 +571,7 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -576,16 +579,16 @@
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>41</v>
@@ -593,30 +596,30 @@
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -633,13 +636,13 @@
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -648,58 +651,58 @@
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
         <v>45</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -708,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">

--- a/events2.xlsx
+++ b/events2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thema\git\difa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4FF56C-2857-4E85-A6AF-1464F21059D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFF9DEA-C400-40FF-ADF2-EC7C8B9EB2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="135" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>Start Time</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Session 5</t>
   </si>
   <si>
-    <t>Frontiers in evidence-based policymaking</t>
-  </si>
-  <si>
     <t>Break</t>
   </si>
   <si>
@@ -81,27 +78,12 @@
     <t>Duration</t>
   </si>
   <si>
-    <t>60 Minutes</t>
-  </si>
-  <si>
     <t>5:00PM</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Greetings from the FAMPS and FSN Chairs; Highlights from Day 1</t>
-  </si>
-  <si>
-    <t>Challenges and bottlenecks of working with administrative data</t>
-  </si>
-  <si>
-    <t>Deterministic Data Linkages: Matching and Fuzzy Matching</t>
-  </si>
-  <si>
-    <t>Closing from the FAMPS and FSN Chairs</t>
-  </si>
-  <si>
     <t>1:35PM</t>
   </si>
   <si>
@@ -111,9 +93,6 @@
     <t>Session 6</t>
   </si>
   <si>
-    <t>Linking Administrative Data: The IPUMS Experience</t>
-  </si>
-  <si>
     <t>2:35PM</t>
   </si>
   <si>
@@ -132,40 +111,67 @@
     <t>4:50PM</t>
   </si>
   <si>
-    <t>Data quality: Considerations when using linked data</t>
-  </si>
-  <si>
     <t>40 minutes</t>
   </si>
   <si>
     <t>10 minutes</t>
   </si>
   <si>
-    <t>Navigating Licenses and Building a Research Plan to Access RDC Data</t>
-  </si>
-  <si>
-    <t>[Lauren Chenarides](https://www.youtube.com/watch?v=ndiQmUUxi9k), [Drew Hanks](https://www.youtube.com/watch?v=ndiQmUUxi9k)</t>
-  </si>
-  <si>
-    <t>[Wen You](https://www.youtube.com/watch?v=XWrJ4ewASqE), [Nichole Szembrot](https://www.youtube.com/watch?v=XWrJ4ewASqE), [Mark Prell](https://www.youtube.com/watch?v=XWrJ4ewASqE), [Bruce Weinberg](https://www.youtube.com/watch?v=XWrJ4ewASqE)</t>
-  </si>
-  <si>
-    <t>[Matt Bombyk](https://www.youtube.com/watch?v=GRfKbc8fs40)</t>
-  </si>
-  <si>
-    <t>[George Davis](https://www.youtube.com/watch?v=Vc4q-rcEOS4), [Joe Cummins](https://www.youtube.com/watch?v=Gh2Gv24yp44)</t>
-  </si>
-  <si>
-    <t>[Lauren Chenarides](https://www.youtube.com/watch?v=_yIWVTy-72k)</t>
-  </si>
-  <si>
-    <t>[Amelia Finaret](https://www.youtube.com/watch?v=poUAfpXeefA)</t>
-  </si>
-  <si>
-    <t>[Drew Hanks](https://www.youtube.com/watch?v=kN0pyEv3t3E)</t>
-  </si>
-  <si>
-    <t>[Lauren Chenarides](https://www.youtube.com/watch?v=0zEtZ6092IQ), [Drew Hanks](https://www.youtube.com/watch?v=0zEtZ6092IQ)</t>
+    <t>[Greetings from the FAMPS and FSN Chairs; Highlights from Day 1](https://www.youtube.com/watch?v=ndiQmUUxi9k)</t>
+  </si>
+  <si>
+    <t>[Lauren Chenarides](https://dataifa.github.io/difa-project/lauren_chenarides.html), [Drew Hanks](https://dataifa.github.io/difa-project/drew_hanks.html)</t>
+  </si>
+  <si>
+    <t>[Challenges and bottlenecks of working with administrative data](https://www.youtube.com/watch?v=XWrJ4ewASqE)</t>
+  </si>
+  <si>
+    <t>[Wen You](https://dataifa.github.io/difa-project/wen_you.html), [Nichole Szembrot](https://dataifa.github.io/difa-project/nichole_szembrot.html), [Mark Prell](https://dataifa.github.io/difa-project/mark_prell.html), [Bruce Weinberg](https://dataifa.github.io/difa-project/bruce_weinberg.html)</t>
+  </si>
+  <si>
+    <t>[Linking Administrative Data: The IPUMS Experience](https://www.youtube.com/watch?v=GRfKbc8fs40)</t>
+  </si>
+  <si>
+    <t>[Matt Bombyk](https://dataifa.github.io/difa-project/matt_bombyk.html)</t>
+  </si>
+  <si>
+    <t>2:05PM</t>
+  </si>
+  <si>
+    <t>30 Minutes</t>
+  </si>
+  <si>
+    <t>[Policy Analysis at the Intersection of Constraints and Nutrition](https://www.youtube.com/watch?v=Vc4q-rcEOS4)</t>
+  </si>
+  <si>
+    <t>[Aggregate Conditions, Child Growth, &amp; the DHS](https://www.youtube.com/watch?v=Gh2Gv24yp44)</t>
+  </si>
+  <si>
+    <t>[George Davis](https://dataifa.github.io/difa-project/george_davis.html)</t>
+  </si>
+  <si>
+    <t>[Joe Cummins](https://dataifa.github.io/difa-project/joe_cummins.html)</t>
+  </si>
+  <si>
+    <t>[Closing from the FAMPS and FSN Chairs](https://www.youtube.com/watch?v=0zEtZ6092IQ)</t>
+  </si>
+  <si>
+    <t>[Deterministic Data Linkages: Matching and Fuzzy Matching](https://www.youtube.com/watch?v=_yIWVTy-72k)</t>
+  </si>
+  <si>
+    <t>[Lauren Chenarides](https://dataifa.github.io/difa-project/lauren_chenarides.html)</t>
+  </si>
+  <si>
+    <t>[Data quality: Considerations when using linked data](https://www.youtube.com/watch?v=poUAfpXeefA)</t>
+  </si>
+  <si>
+    <t>[Amelia Finaret](https://dataifa.github.io/difa-project/amelia_finaret.html)</t>
+  </si>
+  <si>
+    <t>[Navigating Licenses and Building a Research Plan to Access RDC Data](https://www.youtube.com/watch?v=kN0pyEv3t3E)</t>
+  </si>
+  <si>
+    <t>[Drew Hanks](https://dataifa.github.io/difa-project/drew_hanks.html)</t>
   </si>
 </sst>
 </file>
@@ -498,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,200 +528,220 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D14" s="3"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
